--- a/画面項目定義/ホテルリスト画面項目定義.xlsx
+++ b/画面項目定義/ホテルリスト画面項目定義.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81707\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\k022c0080\グループ演習\group_project\画面項目定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66627337-349B-4EC3-AC58-B24D242FFEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CF8721-55E2-4E3B-8B1A-779C56B4AE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{62D27D9D-1A19-46D1-ACE6-F97245515354}"/>
+    <workbookView xWindow="705" yWindow="705" windowWidth="13583" windowHeight="12600" xr2:uid="{62D27D9D-1A19-46D1-ACE6-F97245515354}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t>「戻る」と表示</t>
   </si>
   <si>
-    <t>前の画面に戻る</t>
-  </si>
-  <si>
     <t>ホテルリスト (ホテルA)</t>
   </si>
   <si>
@@ -163,6 +160,13 @@
   </si>
   <si>
     <t>詳細情報 (ホテルD)</t>
+  </si>
+  <si>
+    <t>ホテル詳細画面に遷移</t>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -569,13 +573,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAECABF7-F700-4C92-922B-DE255434B45A}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="36">
+    <row r="1" spans="1:6" ht="35.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,7 +599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="36">
+    <row r="2" spans="1:6" ht="52.9">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -612,247 +616,247 @@
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="123.4">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="126">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="123.4">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="126">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="123.4">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="126">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="123.4">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="126">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="105.75">
+      <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="108">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="105.75">
+      <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="108">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="105.75">
+      <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="108">
-      <c r="A9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="105.75">
+      <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="108">
-      <c r="A10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="123.4">
+      <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="126">
-      <c r="A11" s="2" t="s">
+      <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="123.4">
+      <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="126">
-      <c r="A12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="123.4">
+      <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="126">
-      <c r="A13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:6" ht="123.4">
+      <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="126">
-      <c r="A14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/画面項目定義/ホテルリスト画面項目定義.xlsx
+++ b/画面項目定義/ホテルリスト画面項目定義.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\k022c0080\グループ演習\group_project\画面項目定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CF8721-55E2-4E3B-8B1A-779C56B4AE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75831D83-B26B-456F-A341-56E0B0DAC7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="705" windowWidth="13583" windowHeight="12600" xr2:uid="{62D27D9D-1A19-46D1-ACE6-F97245515354}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{62D27D9D-1A19-46D1-ACE6-F97245515354}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,31 +107,6 @@
     <t>非表示（リストアイテムクリック時に表示）</t>
   </si>
   <si>
-    <r>
-      <t>詳細情報ページへ遷移する（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>hotel_dhite-ru.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
     <t>詳細表示ボタン (ホテルB)</t>
   </si>
   <si>
@@ -166,14 +141,18 @@
     <rPh sb="8" eb="10">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>詳細情報ページへ遷移する</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,12 +169,6 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -573,13 +546,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAECABF7-F700-4C92-922B-DE255434B45A}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="35.25">
+    <row r="1" spans="1:6" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,7 +572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="52.9">
+    <row r="2" spans="1:6" ht="52.9" x14ac:dyDescent="0.7">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -616,10 +589,10 @@
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="123.4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="123.4" x14ac:dyDescent="0.7">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -639,7 +612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="123.4">
+    <row r="4" spans="1:6" ht="123.4" x14ac:dyDescent="0.7">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -659,7 +632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="123.4">
+    <row r="5" spans="1:6" ht="123.4" x14ac:dyDescent="0.7">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -679,7 +652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="123.4">
+    <row r="6" spans="1:6" ht="123.4" x14ac:dyDescent="0.7">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -699,7 +672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="105.75">
+    <row r="7" spans="1:6" ht="105.75" x14ac:dyDescent="0.7">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -716,12 +689,12 @@
         <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="105.75" x14ac:dyDescent="0.7">
+      <c r="A8" s="2" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="105.75">
-      <c r="A8" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -736,12 +709,12 @@
         <v>8</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="105.75">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="105.75" x14ac:dyDescent="0.7">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
@@ -756,12 +729,12 @@
         <v>8</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="105.75">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="105.75" x14ac:dyDescent="0.7">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>21</v>
@@ -776,15 +749,15 @@
         <v>8</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="123.4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="123.4" x14ac:dyDescent="0.7">
       <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
@@ -793,18 +766,18 @@
         <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="123.4" x14ac:dyDescent="0.7">
+      <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="123.4">
-      <c r="A12" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
@@ -813,18 +786,18 @@
         <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="123.4">
+    </row>
+    <row r="13" spans="1:6" ht="123.4" x14ac:dyDescent="0.7">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
@@ -833,18 +806,18 @@
         <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="123.4">
+    </row>
+    <row r="14" spans="1:6" ht="123.4" x14ac:dyDescent="0.7">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
@@ -853,14 +826,14 @@
         <v>22</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>30</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>